--- a/Test_Task_list.xlsx
+++ b/Test_Task_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC680A7-1569-7647-9EBF-1D96C8D572C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE759DB5-16F9-AD42-9E1E-E2881A120BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
+    <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasklist" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -788,7 +788,7 @@
         <v>400</v>
       </c>
       <c r="G7" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>8</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
